--- a/biology/Botanique/Passerillage/Passerillage.xlsx
+++ b/biology/Botanique/Passerillage/Passerillage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le passerillage est une technique vinicole qui s'utilise dans certaines régions viticoles, pour enrichir le raisin en sucre par concentration. Il perd alors de son volume en eau et se concentre en sucre. 100 kg de raisin peuvent ainsi donner 25 litres de vin, alors que traditionnellement ces mêmes 100 kg donnent de 65 à 75 litres de vin. Il peut se faire de deux manières : 
 Le passerillage sur souche consiste à effeuiller la partie de la vigne au niveau des grappes au début de la maturité du raisin pour exposer le raisin au soleil.
